--- a/upload_seed_data/data/origins/new/{Japan}.{SoftBank}.{ja}.xlsx
+++ b/upload_seed_data/data/origins/new/{Japan}.{SoftBank}.{ja}.xlsx
@@ -2213,7 +2213,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2338,6 +2338,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="0" fillId="6" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -7798,7 +7807,7 @@
     </row>
     <row r="158" ht="25.5" customHeight="1">
       <c r="A158" s="21">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B158" s="21">
         <v>4</v>
@@ -7908,7 +7917,7 @@
     </row>
     <row r="162" ht="13.65" customHeight="1">
       <c r="A162" s="21">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B162" s="21">
         <v>4</v>
@@ -8018,7 +8027,7 @@
     </row>
     <row r="166" ht="13.65" customHeight="1">
       <c r="A166" s="21">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="B166" s="21">
         <v>4</v>
@@ -8127,8 +8136,8 @@
       <c r="P169" s="25"/>
     </row>
     <row r="170" ht="15" customHeight="1">
-      <c r="A170" s="20">
-        <v>44</v>
+      <c r="A170" s="42">
+        <v>59</v>
       </c>
       <c r="B170" s="20">
         <v>4</v>
@@ -8171,7 +8180,7 @@
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
-      <c r="A171" s="26"/>
+      <c r="A171" s="43"/>
       <c r="B171" s="26"/>
       <c r="C171" s="26"/>
       <c r="D171" s="26"/>
@@ -8193,7 +8202,7 @@
       <c r="P171" s="26"/>
     </row>
     <row r="172" ht="15" customHeight="1">
-      <c r="A172" s="26"/>
+      <c r="A172" s="43"/>
       <c r="B172" s="26"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
@@ -8215,7 +8224,7 @@
       <c r="P172" s="26"/>
     </row>
     <row r="173" ht="15" customHeight="1">
-      <c r="A173" s="28"/>
+      <c r="A173" s="44"/>
       <c r="B173" s="28"/>
       <c r="C173" s="28"/>
       <c r="D173" s="28"/>
@@ -8237,8 +8246,8 @@
       <c r="P173" s="28"/>
     </row>
     <row r="174" ht="15" customHeight="1">
-      <c r="A174" s="20">
-        <v>45</v>
+      <c r="A174" s="42">
+        <v>60</v>
       </c>
       <c r="B174" s="20">
         <v>4</v>
@@ -8281,7 +8290,7 @@
       </c>
     </row>
     <row r="175" ht="17" customHeight="1">
-      <c r="A175" s="26"/>
+      <c r="A175" s="43"/>
       <c r="B175" s="26"/>
       <c r="C175" s="26"/>
       <c r="D175" s="26"/>
@@ -8303,7 +8312,7 @@
       <c r="P175" s="26"/>
     </row>
     <row r="176" ht="15" customHeight="1">
-      <c r="A176" s="26"/>
+      <c r="A176" s="43"/>
       <c r="B176" s="26"/>
       <c r="C176" s="26"/>
       <c r="D176" s="26"/>
@@ -8325,7 +8334,7 @@
       <c r="P176" s="26"/>
     </row>
     <row r="177" ht="17" customHeight="1">
-      <c r="A177" s="28"/>
+      <c r="A177" s="44"/>
       <c r="B177" s="28"/>
       <c r="C177" s="28"/>
       <c r="D177" s="28"/>
@@ -8347,8 +8356,8 @@
       <c r="P177" s="28"/>
     </row>
     <row r="178" ht="15.9" customHeight="1">
-      <c r="A178" s="20">
-        <v>46</v>
+      <c r="A178" s="42">
+        <v>61</v>
       </c>
       <c r="B178" s="20">
         <v>4</v>
@@ -8391,7 +8400,7 @@
       </c>
     </row>
     <row r="179" ht="15.9" customHeight="1">
-      <c r="A179" s="26"/>
+      <c r="A179" s="43"/>
       <c r="B179" s="26"/>
       <c r="C179" s="26"/>
       <c r="D179" s="26"/>
@@ -8413,7 +8422,7 @@
       <c r="P179" s="26"/>
     </row>
     <row r="180" ht="15.9" customHeight="1">
-      <c r="A180" s="26"/>
+      <c r="A180" s="43"/>
       <c r="B180" s="26"/>
       <c r="C180" s="26"/>
       <c r="D180" s="26"/>
@@ -8435,7 +8444,7 @@
       <c r="P180" s="26"/>
     </row>
     <row r="181" ht="15.9" customHeight="1">
-      <c r="A181" s="28"/>
+      <c r="A181" s="44"/>
       <c r="B181" s="28"/>
       <c r="C181" s="28"/>
       <c r="D181" s="28"/>
@@ -8457,8 +8466,8 @@
       <c r="P181" s="28"/>
     </row>
     <row r="182" ht="15" customHeight="1">
-      <c r="A182" s="20">
-        <v>47</v>
+      <c r="A182" s="42">
+        <v>62</v>
       </c>
       <c r="B182" s="20">
         <v>4</v>
@@ -8501,7 +8510,7 @@
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
-      <c r="A183" s="26"/>
+      <c r="A183" s="43"/>
       <c r="B183" s="26"/>
       <c r="C183" s="26"/>
       <c r="D183" s="26"/>
@@ -8523,7 +8532,7 @@
       <c r="P183" s="26"/>
     </row>
     <row r="184" ht="15" customHeight="1">
-      <c r="A184" s="26"/>
+      <c r="A184" s="43"/>
       <c r="B184" s="26"/>
       <c r="C184" s="26"/>
       <c r="D184" s="26"/>
@@ -8545,7 +8554,7 @@
       <c r="P184" s="26"/>
     </row>
     <row r="185" ht="15" customHeight="1">
-      <c r="A185" s="28"/>
+      <c r="A185" s="44"/>
       <c r="B185" s="28"/>
       <c r="C185" s="28"/>
       <c r="D185" s="28"/>
@@ -8567,8 +8576,8 @@
       <c r="P185" s="28"/>
     </row>
     <row r="186" ht="15" customHeight="1">
-      <c r="A186" s="20">
-        <v>48</v>
+      <c r="A186" s="42">
+        <v>63</v>
       </c>
       <c r="B186" s="20">
         <v>4</v>
@@ -8611,7 +8620,7 @@
       </c>
     </row>
     <row r="187" ht="17" customHeight="1">
-      <c r="A187" s="26"/>
+      <c r="A187" s="43"/>
       <c r="B187" s="26"/>
       <c r="C187" s="26"/>
       <c r="D187" s="26"/>
@@ -8633,7 +8642,7 @@
       <c r="P187" s="26"/>
     </row>
     <row r="188" ht="15.9" customHeight="1">
-      <c r="A188" s="26"/>
+      <c r="A188" s="43"/>
       <c r="B188" s="26"/>
       <c r="C188" s="26"/>
       <c r="D188" s="26"/>
@@ -8655,7 +8664,7 @@
       <c r="P188" s="26"/>
     </row>
     <row r="189" ht="15" customHeight="1">
-      <c r="A189" s="28"/>
+      <c r="A189" s="44"/>
       <c r="B189" s="28"/>
       <c r="C189" s="28"/>
       <c r="D189" s="28"/>
@@ -8677,8 +8686,8 @@
       <c r="P189" s="28"/>
     </row>
     <row r="190" ht="17" customHeight="1">
-      <c r="A190" s="20">
-        <v>49</v>
+      <c r="A190" s="42">
+        <v>64</v>
       </c>
       <c r="B190" s="20">
         <v>4</v>
@@ -8721,7 +8730,7 @@
       </c>
     </row>
     <row r="191" ht="17" customHeight="1">
-      <c r="A191" s="26"/>
+      <c r="A191" s="43"/>
       <c r="B191" s="26"/>
       <c r="C191" s="26"/>
       <c r="D191" s="26"/>
@@ -8743,7 +8752,7 @@
       <c r="P191" s="26"/>
     </row>
     <row r="192" ht="17" customHeight="1">
-      <c r="A192" s="26"/>
+      <c r="A192" s="43"/>
       <c r="B192" s="26"/>
       <c r="C192" s="26"/>
       <c r="D192" s="26"/>
@@ -8765,7 +8774,7 @@
       <c r="P192" s="26"/>
     </row>
     <row r="193" ht="17" customHeight="1">
-      <c r="A193" s="28"/>
+      <c r="A193" s="44"/>
       <c r="B193" s="28"/>
       <c r="C193" s="28"/>
       <c r="D193" s="28"/>
@@ -8787,8 +8796,8 @@
       <c r="P193" s="28"/>
     </row>
     <row r="194" ht="15" customHeight="1">
-      <c r="A194" s="20">
-        <v>50</v>
+      <c r="A194" s="42">
+        <v>65</v>
       </c>
       <c r="B194" s="20">
         <v>4</v>
@@ -8829,7 +8838,7 @@
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
-      <c r="A195" s="26"/>
+      <c r="A195" s="43"/>
       <c r="B195" s="26"/>
       <c r="C195" s="26"/>
       <c r="D195" s="26"/>
@@ -8851,7 +8860,7 @@
       <c r="P195" s="26"/>
     </row>
     <row r="196" ht="15" customHeight="1">
-      <c r="A196" s="26"/>
+      <c r="A196" s="43"/>
       <c r="B196" s="26"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26"/>
@@ -8873,7 +8882,7 @@
       <c r="P196" s="26"/>
     </row>
     <row r="197" ht="15" customHeight="1">
-      <c r="A197" s="28"/>
+      <c r="A197" s="44"/>
       <c r="B197" s="28"/>
       <c r="C197" s="28"/>
       <c r="D197" s="28"/>
@@ -8895,8 +8904,8 @@
       <c r="P197" s="28"/>
     </row>
     <row r="198" ht="15" customHeight="1">
-      <c r="A198" s="20">
-        <v>51</v>
+      <c r="A198" s="42">
+        <v>66</v>
       </c>
       <c r="B198" s="20">
         <v>4</v>
@@ -8937,7 +8946,7 @@
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
-      <c r="A199" s="28"/>
+      <c r="A199" s="44"/>
       <c r="B199" s="28"/>
       <c r="C199" s="28"/>
       <c r="D199" s="28"/>
@@ -8959,8 +8968,8 @@
       <c r="P199" s="28"/>
     </row>
     <row r="200" ht="15" customHeight="1">
-      <c r="A200" s="20">
-        <v>52</v>
+      <c r="A200" s="42">
+        <v>67</v>
       </c>
       <c r="B200" s="20">
         <v>4</v>
@@ -9003,7 +9012,7 @@
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
-      <c r="A201" s="26"/>
+      <c r="A201" s="43"/>
       <c r="B201" s="26"/>
       <c r="C201" s="26"/>
       <c r="D201" s="26"/>
@@ -9025,7 +9034,7 @@
       <c r="P201" s="26"/>
     </row>
     <row r="202" ht="15" customHeight="1">
-      <c r="A202" s="26"/>
+      <c r="A202" s="43"/>
       <c r="B202" s="26"/>
       <c r="C202" s="26"/>
       <c r="D202" s="26"/>
@@ -9047,7 +9056,7 @@
       <c r="P202" s="26"/>
     </row>
     <row r="203" ht="15.9" customHeight="1">
-      <c r="A203" s="28"/>
+      <c r="A203" s="44"/>
       <c r="B203" s="28"/>
       <c r="C203" s="28"/>
       <c r="D203" s="28"/>
@@ -9070,7 +9079,7 @@
     </row>
     <row r="204" ht="12.75" customHeight="1">
       <c r="A204" s="7">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B204" s="7">
         <v>1</v>
@@ -9178,7 +9187,7 @@
     </row>
     <row r="208" ht="24.75" customHeight="1">
       <c r="A208" s="7">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B208" s="7">
         <v>1</v>
@@ -9286,7 +9295,7 @@
     </row>
     <row r="212" ht="24.75" customHeight="1">
       <c r="A212" s="7">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B212" s="7">
         <v>1</v>
@@ -9394,7 +9403,7 @@
     </row>
     <row r="216" ht="24.75" customHeight="1">
       <c r="A216" s="7">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B216" s="7">
         <v>1</v>
@@ -9502,7 +9511,7 @@
     </row>
     <row r="220" ht="24.75" customHeight="1">
       <c r="A220" s="7">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B220" s="7">
         <v>2</v>
@@ -9610,7 +9619,7 @@
     </row>
     <row r="224" ht="24.75" customHeight="1">
       <c r="A224" s="7">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B224" s="7">
         <v>2</v>
@@ -9718,7 +9727,7 @@
     </row>
     <row r="228" ht="24.75" customHeight="1">
       <c r="A228" s="7">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B228" s="7">
         <v>2</v>
@@ -9826,7 +9835,7 @@
     </row>
     <row r="232" ht="24.75" customHeight="1">
       <c r="A232" s="7">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B232" s="7">
         <v>2</v>
@@ -9934,7 +9943,7 @@
     </row>
     <row r="236" ht="24.75" customHeight="1">
       <c r="A236" s="7">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B236" s="7">
         <v>2</v>
@@ -10042,7 +10051,7 @@
     </row>
     <row r="240" ht="24.75" customHeight="1">
       <c r="A240" s="7">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B240" s="7">
         <v>2</v>
@@ -10150,7 +10159,7 @@
     </row>
     <row r="244" ht="24.75" customHeight="1">
       <c r="A244" s="7">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B244" s="7">
         <v>2</v>
@@ -10258,7 +10267,7 @@
     </row>
     <row r="248" ht="24.75" customHeight="1">
       <c r="A248" s="7">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B248" s="7">
         <v>2</v>
@@ -10366,7 +10375,7 @@
     </row>
     <row r="252" ht="24.75" customHeight="1">
       <c r="A252" s="7">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B252" s="7">
         <v>2</v>
@@ -10474,7 +10483,7 @@
     </row>
     <row r="256" ht="24.75" customHeight="1">
       <c r="A256" s="7">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="B256" s="7">
         <v>2</v>
@@ -10582,7 +10591,7 @@
     </row>
     <row r="260" ht="24.75" customHeight="1">
       <c r="A260" s="7">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B260" s="7">
         <v>3</v>
@@ -10690,7 +10699,7 @@
     </row>
     <row r="264" ht="24.75" customHeight="1">
       <c r="A264" s="7">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B264" s="7">
         <v>3</v>
@@ -10798,7 +10807,7 @@
     </row>
     <row r="268" ht="24.75" customHeight="1">
       <c r="A268" s="7">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B268" s="7">
         <v>3</v>
@@ -10906,7 +10915,7 @@
     </row>
     <row r="272" ht="24.75" customHeight="1">
       <c r="A272" s="7">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B272" s="7">
         <v>3</v>
@@ -11014,7 +11023,7 @@
     </row>
     <row r="276" ht="24.75" customHeight="1">
       <c r="A276" s="7">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B276" s="7">
         <v>3</v>
@@ -11122,7 +11131,7 @@
     </row>
     <row r="280" ht="24.75" customHeight="1">
       <c r="A280" s="7">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="B280" s="7">
         <v>3</v>
@@ -11230,7 +11239,7 @@
     </row>
     <row r="284" ht="24.75" customHeight="1">
       <c r="A284" s="7">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B284" s="7">
         <v>3</v>
@@ -11338,7 +11347,7 @@
     </row>
     <row r="288" ht="24.75" customHeight="1">
       <c r="A288" s="7">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B288" s="7">
         <v>3</v>
@@ -11446,7 +11455,7 @@
     </row>
     <row r="292" ht="24.75" customHeight="1">
       <c r="A292" s="7">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B292" s="7">
         <v>3</v>
@@ -11554,7 +11563,7 @@
     </row>
     <row r="296" ht="24.75" customHeight="1">
       <c r="A296" s="7">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B296" s="7">
         <v>3</v>
@@ -11618,7 +11627,7 @@
     </row>
     <row r="298" ht="24.75" customHeight="1">
       <c r="A298" s="7">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B298" s="7">
         <v>4</v>
@@ -11726,7 +11735,7 @@
     </row>
     <row r="302" ht="24.75" customHeight="1">
       <c r="A302" s="7">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B302" s="7">
         <v>4</v>
@@ -11790,7 +11799,7 @@
     </row>
     <row r="304" ht="12.75" customHeight="1">
       <c r="A304" s="7">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B304" s="7">
         <v>4</v>
@@ -11898,7 +11907,7 @@
     </row>
     <row r="308" ht="12.75" customHeight="1">
       <c r="A308" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B308" s="7">
         <v>4</v>
@@ -11962,7 +11971,7 @@
     </row>
     <row r="310" ht="12.75" customHeight="1">
       <c r="A310" s="7">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B310" s="7">
         <v>4</v>
@@ -12070,7 +12079,7 @@
     </row>
     <row r="314" ht="12.75" customHeight="1">
       <c r="A314" s="7">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B314" s="7">
         <v>4</v>
@@ -12121,7 +12130,7 @@
       <c r="H315" s="13"/>
       <c r="I315" s="13"/>
       <c r="J315" s="13"/>
-      <c r="K315" s="42"/>
+      <c r="K315" s="45"/>
       <c r="L315" t="s" s="11">
         <v>391</v>
       </c>
@@ -12143,7 +12152,7 @@
       <c r="H316" s="13"/>
       <c r="I316" s="13"/>
       <c r="J316" s="13"/>
-      <c r="K316" s="42"/>
+      <c r="K316" s="45"/>
       <c r="L316" t="s" s="15">
         <v>392</v>
       </c>
@@ -12165,7 +12174,7 @@
       <c r="H317" s="16"/>
       <c r="I317" s="16"/>
       <c r="J317" s="16"/>
-      <c r="K317" s="42"/>
+      <c r="K317" s="45"/>
       <c r="L317" t="s" s="11">
         <v>393</v>
       </c>
@@ -12178,7 +12187,7 @@
     </row>
     <row r="318" ht="12.75" customHeight="1">
       <c r="A318" s="7">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B318" s="7">
         <v>4</v>
@@ -12286,7 +12295,7 @@
     </row>
     <row r="322" ht="15" customHeight="1">
       <c r="A322" s="7">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B322" s="7">
         <v>4</v>
@@ -12337,7 +12346,7 @@
       <c r="H323" s="16"/>
       <c r="I323" s="16"/>
       <c r="J323" s="16"/>
-      <c r="K323" s="42"/>
+      <c r="K323" s="45"/>
       <c r="L323" t="s" s="11">
         <v>258</v>
       </c>
@@ -12350,7 +12359,7 @@
     </row>
     <row r="324" ht="12.75" customHeight="1">
       <c r="A324" s="7">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B324" s="7">
         <v>4</v>
@@ -12458,7 +12467,7 @@
     </row>
     <row r="328" ht="13.5" customHeight="1">
       <c r="A328" s="7">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B328" s="7">
         <v>4</v>
@@ -12482,7 +12491,7 @@
       <c r="K328" t="s" s="10">
         <v>402</v>
       </c>
-      <c r="L328" t="s" s="43">
+      <c r="L328" t="s" s="46">
         <v>403</v>
       </c>
       <c r="M328" s="12">
@@ -12510,7 +12519,7 @@
       <c r="I329" s="13"/>
       <c r="J329" s="13"/>
       <c r="K329" s="14"/>
-      <c r="L329" t="s" s="44">
+      <c r="L329" t="s" s="47">
         <v>404</v>
       </c>
       <c r="M329" s="12">
@@ -12532,7 +12541,7 @@
       <c r="I330" s="13"/>
       <c r="J330" s="13"/>
       <c r="K330" s="14"/>
-      <c r="L330" t="s" s="43">
+      <c r="L330" t="s" s="46">
         <v>405</v>
       </c>
       <c r="M330" s="12">
@@ -12554,7 +12563,7 @@
       <c r="I331" s="16"/>
       <c r="J331" s="16"/>
       <c r="K331" s="17"/>
-      <c r="L331" t="s" s="43">
+      <c r="L331" t="s" s="46">
         <v>406</v>
       </c>
       <c r="M331" s="12">
@@ -13102,7 +13111,6 @@
     <mergeCell ref="P158:P161"/>
     <mergeCell ref="O154:O157"/>
     <mergeCell ref="P154:P157"/>
-    <mergeCell ref="A158:A161"/>
     <mergeCell ref="B158:B161"/>
     <mergeCell ref="C158:C161"/>
     <mergeCell ref="D158:D161"/>
@@ -13130,7 +13138,6 @@
     <mergeCell ref="P166:P169"/>
     <mergeCell ref="O162:O165"/>
     <mergeCell ref="P162:P165"/>
-    <mergeCell ref="A166:A169"/>
     <mergeCell ref="B166:B169"/>
     <mergeCell ref="C166:C169"/>
     <mergeCell ref="D166:D169"/>
@@ -13144,7 +13151,6 @@
     <mergeCell ref="J162:J165"/>
     <mergeCell ref="K162:K165"/>
     <mergeCell ref="N162:N165"/>
-    <mergeCell ref="A162:A165"/>
     <mergeCell ref="B162:B165"/>
     <mergeCell ref="C162:C165"/>
     <mergeCell ref="D162:D165"/>
@@ -13158,7 +13164,6 @@
     <mergeCell ref="P174:P177"/>
     <mergeCell ref="O170:O173"/>
     <mergeCell ref="P170:P173"/>
-    <mergeCell ref="A174:A177"/>
     <mergeCell ref="B174:B177"/>
     <mergeCell ref="C174:C177"/>
     <mergeCell ref="D174:D177"/>
@@ -13172,7 +13177,6 @@
     <mergeCell ref="J170:J173"/>
     <mergeCell ref="K170:K173"/>
     <mergeCell ref="N170:N173"/>
-    <mergeCell ref="A170:A173"/>
     <mergeCell ref="B170:B173"/>
     <mergeCell ref="C170:C173"/>
     <mergeCell ref="D170:D173"/>
@@ -13186,7 +13190,6 @@
     <mergeCell ref="P182:P185"/>
     <mergeCell ref="O178:O181"/>
     <mergeCell ref="P178:P181"/>
-    <mergeCell ref="A182:A185"/>
     <mergeCell ref="B182:B185"/>
     <mergeCell ref="C182:C185"/>
     <mergeCell ref="D182:D185"/>
@@ -13200,7 +13203,6 @@
     <mergeCell ref="J178:J181"/>
     <mergeCell ref="K178:K181"/>
     <mergeCell ref="N178:N181"/>
-    <mergeCell ref="A178:A181"/>
     <mergeCell ref="B178:B181"/>
     <mergeCell ref="C178:C181"/>
     <mergeCell ref="D178:D181"/>
@@ -13214,7 +13216,6 @@
     <mergeCell ref="P190:P193"/>
     <mergeCell ref="O186:O189"/>
     <mergeCell ref="P186:P189"/>
-    <mergeCell ref="A190:A193"/>
     <mergeCell ref="B190:B193"/>
     <mergeCell ref="C190:C193"/>
     <mergeCell ref="D190:D193"/>
@@ -13228,7 +13229,6 @@
     <mergeCell ref="J186:J189"/>
     <mergeCell ref="K186:K189"/>
     <mergeCell ref="N186:N189"/>
-    <mergeCell ref="A186:A189"/>
     <mergeCell ref="B186:B189"/>
     <mergeCell ref="C186:C189"/>
     <mergeCell ref="D186:D189"/>
@@ -13242,7 +13242,6 @@
     <mergeCell ref="P198:P199"/>
     <mergeCell ref="O194:O197"/>
     <mergeCell ref="P194:P197"/>
-    <mergeCell ref="A198:A199"/>
     <mergeCell ref="B198:B199"/>
     <mergeCell ref="C198:C199"/>
     <mergeCell ref="D198:D199"/>
@@ -13256,7 +13255,6 @@
     <mergeCell ref="J194:J197"/>
     <mergeCell ref="K194:K197"/>
     <mergeCell ref="N194:N197"/>
-    <mergeCell ref="A194:A197"/>
     <mergeCell ref="B194:B197"/>
     <mergeCell ref="C194:C197"/>
     <mergeCell ref="D194:D197"/>
@@ -13266,14 +13264,12 @@
     <mergeCell ref="N204:N207"/>
     <mergeCell ref="O204:O207"/>
     <mergeCell ref="P204:P207"/>
-    <mergeCell ref="A208:A211"/>
     <mergeCell ref="B208:B211"/>
     <mergeCell ref="C208:C211"/>
     <mergeCell ref="D208:D211"/>
     <mergeCell ref="F208:F211"/>
     <mergeCell ref="G208:G211"/>
     <mergeCell ref="P200:P203"/>
-    <mergeCell ref="A204:A207"/>
     <mergeCell ref="B204:B207"/>
     <mergeCell ref="C204:C207"/>
     <mergeCell ref="D204:D207"/>
@@ -13288,7 +13284,6 @@
     <mergeCell ref="K200:K203"/>
     <mergeCell ref="N200:N203"/>
     <mergeCell ref="O200:O203"/>
-    <mergeCell ref="A200:A203"/>
     <mergeCell ref="B200:B203"/>
     <mergeCell ref="C200:C203"/>
     <mergeCell ref="D200:D203"/>
@@ -13298,14 +13293,12 @@
     <mergeCell ref="N212:N215"/>
     <mergeCell ref="O212:O215"/>
     <mergeCell ref="P212:P215"/>
-    <mergeCell ref="A216:A219"/>
     <mergeCell ref="B216:B219"/>
     <mergeCell ref="C216:C219"/>
     <mergeCell ref="D216:D219"/>
     <mergeCell ref="F216:F219"/>
     <mergeCell ref="G216:G219"/>
     <mergeCell ref="P208:P211"/>
-    <mergeCell ref="A212:A215"/>
     <mergeCell ref="B212:B215"/>
     <mergeCell ref="C212:C215"/>
     <mergeCell ref="D212:D215"/>
@@ -13324,14 +13317,12 @@
     <mergeCell ref="N220:N223"/>
     <mergeCell ref="O220:O223"/>
     <mergeCell ref="P220:P223"/>
-    <mergeCell ref="A224:A227"/>
     <mergeCell ref="B224:B227"/>
     <mergeCell ref="C224:C227"/>
     <mergeCell ref="D224:D227"/>
     <mergeCell ref="F224:F227"/>
     <mergeCell ref="G224:G227"/>
     <mergeCell ref="P216:P219"/>
-    <mergeCell ref="A220:A223"/>
     <mergeCell ref="B220:B223"/>
     <mergeCell ref="C220:C223"/>
     <mergeCell ref="D220:D223"/>
@@ -13350,14 +13341,12 @@
     <mergeCell ref="N228:N231"/>
     <mergeCell ref="O228:O231"/>
     <mergeCell ref="P228:P231"/>
-    <mergeCell ref="A232:A235"/>
     <mergeCell ref="B232:B235"/>
     <mergeCell ref="C232:C235"/>
     <mergeCell ref="D232:D235"/>
     <mergeCell ref="F232:F235"/>
     <mergeCell ref="G232:G235"/>
     <mergeCell ref="P224:P227"/>
-    <mergeCell ref="A228:A231"/>
     <mergeCell ref="B228:B231"/>
     <mergeCell ref="C228:C231"/>
     <mergeCell ref="D228:D231"/>
@@ -13376,14 +13365,12 @@
     <mergeCell ref="N236:N239"/>
     <mergeCell ref="O236:O239"/>
     <mergeCell ref="P236:P239"/>
-    <mergeCell ref="A240:A243"/>
     <mergeCell ref="B240:B243"/>
     <mergeCell ref="C240:C243"/>
     <mergeCell ref="D240:D243"/>
     <mergeCell ref="F240:F243"/>
     <mergeCell ref="G240:G243"/>
     <mergeCell ref="P232:P235"/>
-    <mergeCell ref="A236:A239"/>
     <mergeCell ref="B236:B239"/>
     <mergeCell ref="C236:C239"/>
     <mergeCell ref="D236:D239"/>
@@ -13402,14 +13389,12 @@
     <mergeCell ref="N244:N247"/>
     <mergeCell ref="O244:O247"/>
     <mergeCell ref="P244:P247"/>
-    <mergeCell ref="A248:A251"/>
     <mergeCell ref="B248:B251"/>
     <mergeCell ref="C248:C251"/>
     <mergeCell ref="D248:D251"/>
     <mergeCell ref="F248:F251"/>
     <mergeCell ref="G248:G251"/>
     <mergeCell ref="P240:P243"/>
-    <mergeCell ref="A244:A247"/>
     <mergeCell ref="B244:B247"/>
     <mergeCell ref="C244:C247"/>
     <mergeCell ref="D244:D247"/>
@@ -13428,14 +13413,12 @@
     <mergeCell ref="N252:N255"/>
     <mergeCell ref="O252:O255"/>
     <mergeCell ref="P252:P255"/>
-    <mergeCell ref="A256:A259"/>
     <mergeCell ref="B256:B259"/>
     <mergeCell ref="C256:C259"/>
     <mergeCell ref="D256:D259"/>
     <mergeCell ref="F256:F259"/>
     <mergeCell ref="G256:G259"/>
     <mergeCell ref="P248:P251"/>
-    <mergeCell ref="A252:A255"/>
     <mergeCell ref="B252:B255"/>
     <mergeCell ref="C252:C255"/>
     <mergeCell ref="D252:D255"/>
@@ -13454,14 +13437,12 @@
     <mergeCell ref="N260:N263"/>
     <mergeCell ref="O260:O263"/>
     <mergeCell ref="P260:P263"/>
-    <mergeCell ref="A264:A267"/>
     <mergeCell ref="B264:B267"/>
     <mergeCell ref="C264:C267"/>
     <mergeCell ref="D264:D267"/>
     <mergeCell ref="F264:F267"/>
     <mergeCell ref="G264:G267"/>
     <mergeCell ref="P256:P259"/>
-    <mergeCell ref="A260:A263"/>
     <mergeCell ref="B260:B263"/>
     <mergeCell ref="C260:C263"/>
     <mergeCell ref="D260:D263"/>
@@ -13480,14 +13461,12 @@
     <mergeCell ref="N268:N271"/>
     <mergeCell ref="O268:O271"/>
     <mergeCell ref="P268:P271"/>
-    <mergeCell ref="A272:A275"/>
     <mergeCell ref="B272:B275"/>
     <mergeCell ref="C272:C275"/>
     <mergeCell ref="D272:D275"/>
     <mergeCell ref="F272:F275"/>
     <mergeCell ref="G272:G275"/>
     <mergeCell ref="P264:P267"/>
-    <mergeCell ref="A268:A271"/>
     <mergeCell ref="B268:B271"/>
     <mergeCell ref="C268:C271"/>
     <mergeCell ref="D268:D271"/>
@@ -13506,14 +13485,12 @@
     <mergeCell ref="N276:N279"/>
     <mergeCell ref="O276:O279"/>
     <mergeCell ref="P276:P279"/>
-    <mergeCell ref="A280:A283"/>
     <mergeCell ref="B280:B283"/>
     <mergeCell ref="C280:C283"/>
     <mergeCell ref="D280:D283"/>
     <mergeCell ref="F280:F283"/>
     <mergeCell ref="G280:G283"/>
     <mergeCell ref="P272:P275"/>
-    <mergeCell ref="A276:A279"/>
     <mergeCell ref="B276:B279"/>
     <mergeCell ref="C276:C279"/>
     <mergeCell ref="D276:D279"/>
@@ -13532,14 +13509,12 @@
     <mergeCell ref="N284:N287"/>
     <mergeCell ref="O284:O287"/>
     <mergeCell ref="P284:P287"/>
-    <mergeCell ref="A288:A291"/>
     <mergeCell ref="B288:B291"/>
     <mergeCell ref="C288:C291"/>
     <mergeCell ref="D288:D291"/>
     <mergeCell ref="F288:F291"/>
     <mergeCell ref="G288:G291"/>
     <mergeCell ref="P280:P283"/>
-    <mergeCell ref="A284:A287"/>
     <mergeCell ref="B284:B287"/>
     <mergeCell ref="C284:C287"/>
     <mergeCell ref="D284:D287"/>
@@ -13558,14 +13533,12 @@
     <mergeCell ref="N292:N295"/>
     <mergeCell ref="O292:O295"/>
     <mergeCell ref="P292:P295"/>
-    <mergeCell ref="A296:A297"/>
     <mergeCell ref="B296:B297"/>
     <mergeCell ref="C296:C297"/>
     <mergeCell ref="D296:D297"/>
     <mergeCell ref="E296:E297"/>
     <mergeCell ref="F296:F297"/>
     <mergeCell ref="P288:P291"/>
-    <mergeCell ref="A292:A295"/>
     <mergeCell ref="B292:B295"/>
     <mergeCell ref="C292:C295"/>
     <mergeCell ref="D292:D295"/>
@@ -13585,14 +13558,12 @@
     <mergeCell ref="N298:N301"/>
     <mergeCell ref="O298:O301"/>
     <mergeCell ref="P298:P301"/>
-    <mergeCell ref="A302:A303"/>
     <mergeCell ref="B302:B303"/>
     <mergeCell ref="C302:C303"/>
     <mergeCell ref="D302:D303"/>
     <mergeCell ref="E302:E303"/>
     <mergeCell ref="O296:O297"/>
     <mergeCell ref="P296:P297"/>
-    <mergeCell ref="A298:A301"/>
     <mergeCell ref="B298:B301"/>
     <mergeCell ref="C298:C301"/>
     <mergeCell ref="D298:D301"/>
@@ -13615,7 +13586,6 @@
     <mergeCell ref="N302:N303"/>
     <mergeCell ref="O302:O303"/>
     <mergeCell ref="P302:P303"/>
-    <mergeCell ref="A304:A307"/>
     <mergeCell ref="B304:B307"/>
     <mergeCell ref="C304:C307"/>
     <mergeCell ref="D304:D307"/>
@@ -13630,7 +13600,6 @@
     <mergeCell ref="K302:K303"/>
     <mergeCell ref="O308:O309"/>
     <mergeCell ref="P308:P309"/>
-    <mergeCell ref="A310:A313"/>
     <mergeCell ref="B310:B313"/>
     <mergeCell ref="C310:C313"/>
     <mergeCell ref="D310:D313"/>
@@ -13644,7 +13613,6 @@
     <mergeCell ref="J308:J309"/>
     <mergeCell ref="K308:K309"/>
     <mergeCell ref="N308:N309"/>
-    <mergeCell ref="A308:A309"/>
     <mergeCell ref="B308:B309"/>
     <mergeCell ref="C308:C309"/>
     <mergeCell ref="D308:D309"/>
@@ -13652,7 +13620,6 @@
     <mergeCell ref="F308:F309"/>
     <mergeCell ref="O314:O317"/>
     <mergeCell ref="P314:P317"/>
-    <mergeCell ref="A318:A321"/>
     <mergeCell ref="B318:B321"/>
     <mergeCell ref="C318:C321"/>
     <mergeCell ref="D318:D321"/>
@@ -13671,7 +13638,6 @@
     <mergeCell ref="N310:N313"/>
     <mergeCell ref="O310:O313"/>
     <mergeCell ref="P310:P313"/>
-    <mergeCell ref="A314:A317"/>
     <mergeCell ref="B314:B317"/>
     <mergeCell ref="C314:C317"/>
     <mergeCell ref="D314:D317"/>
@@ -13679,7 +13645,6 @@
     <mergeCell ref="N322:N323"/>
     <mergeCell ref="O322:O323"/>
     <mergeCell ref="P322:P323"/>
-    <mergeCell ref="A324:A327"/>
     <mergeCell ref="B324:B327"/>
     <mergeCell ref="C324:C327"/>
     <mergeCell ref="D324:D327"/>
@@ -13697,7 +13662,6 @@
     <mergeCell ref="N318:N321"/>
     <mergeCell ref="O318:O321"/>
     <mergeCell ref="P318:P321"/>
-    <mergeCell ref="A322:A323"/>
     <mergeCell ref="B322:B323"/>
     <mergeCell ref="C322:C323"/>
     <mergeCell ref="D322:D323"/>
@@ -13709,7 +13673,6 @@
     <mergeCell ref="K328:K331"/>
     <mergeCell ref="N328:N331"/>
     <mergeCell ref="O328:O331"/>
-    <mergeCell ref="A328:A331"/>
     <mergeCell ref="B328:B331"/>
     <mergeCell ref="C328:C331"/>
     <mergeCell ref="D328:D331"/>
@@ -13721,6 +13684,52 @@
     <mergeCell ref="N324:N327"/>
     <mergeCell ref="O324:O327"/>
     <mergeCell ref="P324:P327"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="A166:A169"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="A174:A177"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A178:A181"/>
+    <mergeCell ref="A190:A193"/>
+    <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A198:A199"/>
+    <mergeCell ref="A194:A197"/>
+    <mergeCell ref="A208:A211"/>
+    <mergeCell ref="A204:A207"/>
+    <mergeCell ref="A200:A203"/>
+    <mergeCell ref="A216:A219"/>
+    <mergeCell ref="A212:A215"/>
+    <mergeCell ref="A224:A227"/>
+    <mergeCell ref="A220:A223"/>
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="A228:A231"/>
+    <mergeCell ref="A240:A243"/>
+    <mergeCell ref="A236:A239"/>
+    <mergeCell ref="A248:A251"/>
+    <mergeCell ref="A244:A247"/>
+    <mergeCell ref="A256:A259"/>
+    <mergeCell ref="A252:A255"/>
+    <mergeCell ref="A264:A267"/>
+    <mergeCell ref="A260:A263"/>
+    <mergeCell ref="A272:A275"/>
+    <mergeCell ref="A268:A271"/>
+    <mergeCell ref="A280:A283"/>
+    <mergeCell ref="A276:A279"/>
+    <mergeCell ref="A288:A291"/>
+    <mergeCell ref="A284:A287"/>
+    <mergeCell ref="A296:A297"/>
+    <mergeCell ref="A292:A295"/>
+    <mergeCell ref="A302:A303"/>
+    <mergeCell ref="A298:A301"/>
+    <mergeCell ref="A304:A307"/>
+    <mergeCell ref="A310:A313"/>
+    <mergeCell ref="A308:A309"/>
+    <mergeCell ref="A318:A321"/>
+    <mergeCell ref="A314:A317"/>
+    <mergeCell ref="A324:A327"/>
+    <mergeCell ref="A322:A323"/>
+    <mergeCell ref="A328:A331"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
